--- a/biology/Botanique/Gelidium/Gelidium.xlsx
+++ b/biology/Botanique/Gelidium/Gelidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gelidium est un genre d'algues rouges (Rhodophyta) de la famille des Gelidiaceae. Il comprend 124 espèces, connues sous plusieurs noms communs[note 1]. La taille des espèces est généralement comprise entre 2 et 40 cm. Leurs ramifications sont irrégulières, ou en rangées de part et d'autre du thalle principal. Gelidium produit des tétraspores. 
 Ce sont des algues très importantes pour la production mondiale d'agar-agar.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (22 août 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (22 août 2017) :
 Gelidium abbottiorum R.E.Norris
 Gelidium affine Schiffner (Statut incertain)
 Gelidium amamiense Tanaka &amp; K.Nozawa
@@ -659,7 +673,7 @@
 Gelidium vittatum (Linnaeus) Kützing
 Gelidium yamadae K.-C.Fan
 Gelidium yoshidae G.H.Boo &amp; R.Terada
-Selon ITIS      (22 août 2017)[3] :
+Selon ITIS      (22 août 2017) :
 Gelidium amansii
 Gelidium americanum (W. Taylor) Santelices
 Gelidium arborescens Gardn.
@@ -689,7 +703,7 @@
 Gelidium sinicola
 Gelidium sonorense
 Gelidium vittatum (L.) Kütz.
-Selon World Register of Marine Species                               (22 août 2017)[2] :
+Selon World Register of Marine Species                               (22 août 2017) :
 Gelidium abbottiorum R.E.Norris, 1990
 Gelidium aculeatum (Greville) Batters
 Gelidium affine Schiffner
